--- a/dataExcel/【PP-野牛 _ 阿努比斯之审判 (崭新出厂)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【PP-野牛 _ 阿努比斯之审判 (崭新出厂)】悠悠有品近1个月-总览.xlsx
@@ -431,86 +431,86 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:22:30</v>
+        <v>2023-09-19 10:40:18</v>
       </c>
       <c r="B8">
-        <v>68.59</v>
+        <v>69.29</v>
       </c>
       <c r="C8">
-        <v>79.43</v>
+        <v>77.55</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 20:36:16</v>
+        <v>2023-09-19 15:48:48</v>
       </c>
       <c r="B9">
-        <v>69.39</v>
+        <v>69.19</v>
       </c>
       <c r="C9">
-        <v>79.43</v>
+        <v>77.55</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F9">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 01:51:46</v>
+        <v>2023-09-19 20:58:56</v>
       </c>
       <c r="B10">
-        <v>69.48</v>
+        <v>69.5</v>
       </c>
       <c r="C10">
-        <v>79.43</v>
+        <v>77.55</v>
       </c>
       <c r="D10">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F10">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -518,115 +518,115 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 06:58:00</v>
+        <v>2023-09-20 02:09:10</v>
       </c>
       <c r="B11">
-        <v>69.48</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>83.07</v>
+        <v>79.04</v>
       </c>
       <c r="D11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F11">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 12:11:02</v>
+        <v>2023-09-20 07:20:15</v>
       </c>
       <c r="B12">
-        <v>69.25</v>
+        <v>69.98</v>
       </c>
       <c r="C12">
-        <v>83.07</v>
+        <v>79.04</v>
       </c>
       <c r="D12">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E12">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F12">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 17:19:03</v>
+        <v>2023-09-20 12:28:42</v>
       </c>
       <c r="B13">
-        <v>68.4</v>
+        <v>70.9</v>
       </c>
       <c r="C13">
-        <v>83.07</v>
+        <v>79.04</v>
       </c>
       <c r="D13">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E13">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 22:27:37</v>
+        <v>2023-09-20 17:39:09</v>
       </c>
       <c r="B14">
-        <v>68.9</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>83.07</v>
+        <v>79.04</v>
       </c>
       <c r="D14">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G14">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -634,173 +634,173 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 03:37:36</v>
+        <v>2023-09-20 22:48:40</v>
       </c>
       <c r="B15">
-        <v>68.9</v>
+        <v>70</v>
       </c>
       <c r="C15">
-        <v>76.7</v>
+        <v>79.04</v>
       </c>
       <c r="D15">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 08:50:12</v>
+        <v>2023-09-21 03:58:46</v>
       </c>
       <c r="B16">
-        <v>68.8</v>
+        <v>70.9</v>
       </c>
       <c r="C16">
-        <v>76.7</v>
+        <v>80.2</v>
       </c>
       <c r="D16">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 13:59:28</v>
+        <v>2023-09-21 09:08:45</v>
       </c>
       <c r="B17">
-        <v>68.8</v>
+        <v>70.89</v>
       </c>
       <c r="C17">
-        <v>76.7</v>
+        <v>80.2</v>
       </c>
       <c r="D17">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 19:09:31</v>
+        <v>2023-09-21 14:18:42</v>
       </c>
       <c r="B18">
-        <v>68.9</v>
+        <v>70.7</v>
       </c>
       <c r="C18">
-        <v>76.7</v>
+        <v>80.2</v>
       </c>
       <c r="D18">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="F18">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 00:19:28</v>
+        <v>2023-09-21 19:28:41</v>
       </c>
       <c r="B19">
-        <v>68.9</v>
+        <v>70</v>
       </c>
       <c r="C19">
-        <v>76.7</v>
+        <v>80.2</v>
       </c>
       <c r="D19">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E19">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F19">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G19">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 05:28:27</v>
+        <v>2023-09-22 00:38:40</v>
       </c>
       <c r="B20">
-        <v>69</v>
+        <v>70.2</v>
       </c>
       <c r="C20">
-        <v>77.55</v>
+        <v>80.2</v>
       </c>
       <c r="D20">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20">
         <v>0.08</v>
       </c>
       <c r="F20">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20">
         <v>12</v>
@@ -808,28 +808,28 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 10:40:18</v>
+        <v>2023-09-22 05:48:39</v>
       </c>
       <c r="B21">
-        <v>69.29</v>
+        <v>70.3</v>
       </c>
       <c r="C21">
-        <v>77.55</v>
+        <v>81.06</v>
       </c>
       <c r="D21">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E21">
         <v>0.08</v>
       </c>
       <c r="F21">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G21">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -837,161 +837,161 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 15:48:48</v>
+        <v>2023-09-22 10:58:38</v>
       </c>
       <c r="B22">
-        <v>69.19</v>
+        <v>69.9</v>
       </c>
       <c r="C22">
-        <v>77.55</v>
+        <v>81.06</v>
       </c>
       <c r="D22">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E22">
         <v>0.08</v>
       </c>
       <c r="F22">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G22">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>67</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 20:58:56</v>
+        <v>2023-09-22 16:08:37</v>
       </c>
       <c r="B23">
-        <v>69.5</v>
+        <v>69.3</v>
       </c>
       <c r="C23">
-        <v>77.55</v>
+        <v>81.06</v>
       </c>
       <c r="D23">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>0.08</v>
       </c>
       <c r="F23">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G23">
         <v>31</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 02:09:10</v>
+        <v>2023-09-22 21:18:36</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>69.2</v>
       </c>
       <c r="C24">
-        <v>79.04</v>
+        <v>81.06</v>
       </c>
       <c r="D24">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="E24">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F24">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I24">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 07:20:15</v>
+        <v>2023-09-23 02:28:35</v>
       </c>
       <c r="B25">
-        <v>69.98</v>
+        <v>69.3</v>
       </c>
       <c r="C25">
-        <v>79.04</v>
+        <v>79.69</v>
       </c>
       <c r="D25">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 12:28:42</v>
+        <v>2023-09-23 07:38:36</v>
       </c>
       <c r="B26">
-        <v>70.9</v>
+        <v>69.25</v>
       </c>
       <c r="C26">
-        <v>79.04</v>
+        <v>79.69</v>
       </c>
       <c r="D26">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E26">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 17:39:09</v>
+        <v>2023-09-23 12:48:34</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>69.2</v>
       </c>
       <c r="C27">
-        <v>79.04</v>
+        <v>79.69</v>
       </c>
       <c r="D27">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E27">
         <v>0.1</v>
@@ -1000,56 +1000,56 @@
         <v>0.08</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 22:48:40</v>
+        <v>2023-09-23 17:58:49</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>69.2</v>
       </c>
       <c r="C28">
-        <v>79.04</v>
+        <v>79.69</v>
       </c>
       <c r="D28">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F28">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>66</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 03:58:46</v>
+        <v>2023-09-23 23:09:54</v>
       </c>
       <c r="B29">
-        <v>70.9</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>80.2</v>
+        <v>79.69</v>
       </c>
       <c r="D29">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E29">
         <v>0.1</v>
@@ -1058,97 +1058,97 @@
         <v>0.08</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>66</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 09:08:45</v>
+        <v>2023-09-24 04:18:47</v>
       </c>
       <c r="B30">
-        <v>70.89</v>
+        <v>69</v>
       </c>
       <c r="C30">
-        <v>80.2</v>
+        <v>81.12</v>
       </c>
       <c r="D30">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F30">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G30">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>66</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 14:18:42</v>
+        <v>2023-09-24 09:28:46</v>
       </c>
       <c r="B31">
-        <v>70.7</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>80.2</v>
+        <v>81.12</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 19:28:41</v>
+        <v>2023-09-24 14:38:45</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32">
-        <v>80.2</v>
+        <v>81.12</v>
       </c>
       <c r="D32">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E32">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="F32">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -1156,167 +1156,167 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 00:38:40</v>
+        <v>2023-09-24 19:48:44</v>
       </c>
       <c r="B33">
-        <v>70.2</v>
+        <v>68.9</v>
       </c>
       <c r="C33">
-        <v>80.2</v>
+        <v>81.12</v>
       </c>
       <c r="D33">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E33">
         <v>0.08</v>
       </c>
       <c r="F33">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 05:48:39</v>
+        <v>2023-09-25 00:58:43</v>
       </c>
       <c r="B34">
-        <v>70.3</v>
+        <v>69.2</v>
       </c>
       <c r="C34">
-        <v>81.06</v>
+        <v>81.12</v>
       </c>
       <c r="D34">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E34">
         <v>0.08</v>
       </c>
       <c r="F34">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 10:58:38</v>
+        <v>2023-09-25 06:03:27</v>
       </c>
       <c r="B35">
-        <v>69.9</v>
+        <v>69.2</v>
       </c>
       <c r="C35">
-        <v>81.06</v>
+        <v>79.56</v>
       </c>
       <c r="D35">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E35">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F35">
         <v>0.07</v>
       </c>
       <c r="G35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 16:08:37</v>
+        <v>2023-09-25 11:12:47</v>
       </c>
       <c r="B36">
-        <v>69.3</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>81.06</v>
+        <v>79.56</v>
       </c>
       <c r="D36">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E36">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H36">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 21:18:36</v>
+        <v>2023-09-25 16:22:47</v>
       </c>
       <c r="B37">
-        <v>69.2</v>
+        <v>68.9</v>
       </c>
       <c r="C37">
-        <v>81.06</v>
+        <v>79.56</v>
       </c>
       <c r="D37">
         <v>222</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>66</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 02:28:35</v>
+        <v>2023-09-25 21:32:47</v>
       </c>
       <c r="B38">
-        <v>69.3</v>
+        <v>69</v>
       </c>
       <c r="C38">
-        <v>79.69</v>
+        <v>79.56</v>
       </c>
       <c r="D38">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F38">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G38">
         <v>34</v>
@@ -1325,27 +1325,27 @@
         <v>66</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 07:38:36</v>
+        <v>2023-09-26 02:42:46</v>
       </c>
       <c r="B39">
-        <v>69.25</v>
+        <v>69.97</v>
       </c>
       <c r="C39">
-        <v>79.69</v>
+        <v>81.97</v>
       </c>
       <c r="D39">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F39">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G39">
         <v>33</v>
@@ -1359,83 +1359,83 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 12:48:34</v>
+        <v>2023-09-26 07:52:45</v>
       </c>
       <c r="B40">
-        <v>69.2</v>
+        <v>69.86</v>
       </c>
       <c r="C40">
-        <v>79.69</v>
+        <v>81.97</v>
       </c>
       <c r="D40">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>66</v>
       </c>
       <c r="I40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 17:58:49</v>
+        <v>2023-09-26 13:02:43</v>
       </c>
       <c r="B41">
-        <v>69.2</v>
+        <v>67.5</v>
       </c>
       <c r="C41">
-        <v>79.69</v>
+        <v>81.97</v>
       </c>
       <c r="D41">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E41">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G41">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>66</v>
       </c>
       <c r="I41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 23:09:54</v>
+        <v>2023-09-26 18:12:43</v>
       </c>
       <c r="B42">
-        <v>69</v>
+        <v>69.89</v>
       </c>
       <c r="C42">
-        <v>79.69</v>
+        <v>81.97</v>
       </c>
       <c r="D42">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F42">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>66</v>
@@ -1446,173 +1446,173 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 04:18:47</v>
+        <v>2023-09-26 23:22:42</v>
       </c>
       <c r="B43">
-        <v>69</v>
+        <v>69.88</v>
       </c>
       <c r="C43">
-        <v>81.12</v>
+        <v>81.97</v>
       </c>
       <c r="D43">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E43">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G43">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>66</v>
       </c>
       <c r="I43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 09:28:46</v>
+        <v>2023-09-27 04:32:41</v>
       </c>
       <c r="B44">
-        <v>69</v>
+        <v>69.88</v>
       </c>
       <c r="C44">
-        <v>81.12</v>
+        <v>84.89</v>
       </c>
       <c r="D44">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E44">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G44">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H44">
         <v>66</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 14:38:45</v>
+        <v>2023-09-27 09:42:40</v>
       </c>
       <c r="B45">
-        <v>69</v>
+        <v>69.78</v>
       </c>
       <c r="C45">
-        <v>81.12</v>
+        <v>84.89</v>
       </c>
       <c r="D45">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E45">
         <v>0.1</v>
       </c>
       <c r="F45">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G45">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H45">
         <v>66</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 19:48:44</v>
+        <v>2023-09-27 14:52:27</v>
       </c>
       <c r="B46">
-        <v>68.9</v>
+        <v>69.09</v>
       </c>
       <c r="C46">
-        <v>81.12</v>
+        <v>84.89</v>
       </c>
       <c r="D46">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E46">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G46">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>66</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 00:58:43</v>
+        <v>2023-09-27 20:02:26</v>
       </c>
       <c r="B47">
-        <v>69.2</v>
+        <v>68.98</v>
       </c>
       <c r="C47">
-        <v>81.12</v>
+        <v>84.89</v>
       </c>
       <c r="D47">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E47">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G47">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H47">
         <v>65</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 06:03:27</v>
+        <v>2023-09-28 01:12:48</v>
       </c>
       <c r="B48">
-        <v>69.2</v>
+        <v>67.98</v>
       </c>
       <c r="C48">
-        <v>79.56</v>
+        <v>84.89</v>
       </c>
       <c r="D48">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E48">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G48">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H48">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I48">
         <v>12</v>
@@ -1620,132 +1620,132 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 11:12:47</v>
+        <v>2023-09-28 06:22:54</v>
       </c>
       <c r="B49">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49">
-        <v>79.56</v>
+        <v>82.55</v>
       </c>
       <c r="D49">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G49">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H49">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 16:22:47</v>
+        <v>2023-09-28 11:32:39</v>
       </c>
       <c r="B50">
         <v>68.9</v>
       </c>
       <c r="C50">
-        <v>79.56</v>
+        <v>82.55</v>
       </c>
       <c r="D50">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E50">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F50">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G50">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 21:32:47</v>
+        <v>2023-09-28 16:42:38</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>67.7</v>
       </c>
       <c r="C51">
-        <v>79.56</v>
+        <v>82.55</v>
       </c>
       <c r="D51">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E51">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G51">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H51">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 02:42:46</v>
+        <v>2023-09-28 21:53:09</v>
       </c>
       <c r="B52">
-        <v>69.97</v>
+        <v>66.77</v>
       </c>
       <c r="C52">
-        <v>81.97</v>
+        <v>82.55</v>
       </c>
       <c r="D52">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E52">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F52">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G52">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 07:52:45</v>
+        <v>2023-09-29 03:05:23</v>
       </c>
       <c r="B53">
-        <v>69.86</v>
+        <v>66.28</v>
       </c>
       <c r="C53">
-        <v>81.97</v>
+        <v>83.39</v>
       </c>
       <c r="D53">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="E53">
         <v>0.08</v>
@@ -1754,68 +1754,68 @@
         <v>0.06</v>
       </c>
       <c r="G53">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 13:02:43</v>
+        <v>2023-09-29 08:12:51</v>
       </c>
       <c r="B54">
-        <v>67.5</v>
+        <v>66.2</v>
       </c>
       <c r="C54">
-        <v>81.97</v>
+        <v>83.39</v>
       </c>
       <c r="D54">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F54">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G54">
         <v>30</v>
       </c>
       <c r="H54">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 18:12:43</v>
+        <v>2023-09-29 13:22:52</v>
       </c>
       <c r="B55">
-        <v>69.89</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>81.97</v>
+        <v>83.39</v>
       </c>
       <c r="D55">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F55">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G55">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H55">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I55">
         <v>11</v>
@@ -1823,144 +1823,144 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 23:22:42</v>
+        <v>2023-09-29 18:34:19</v>
       </c>
       <c r="B56">
-        <v>69.88</v>
+        <v>62.9</v>
       </c>
       <c r="C56">
-        <v>81.97</v>
+        <v>83.39</v>
       </c>
       <c r="D56">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="E56">
         <v>0.1</v>
       </c>
       <c r="F56">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G56">
         <v>29</v>
       </c>
       <c r="H56">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 04:32:41</v>
+        <v>2023-09-29 23:43:24</v>
       </c>
       <c r="B57">
-        <v>69.88</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>84.89</v>
+        <v>83.39</v>
       </c>
       <c r="D57">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="E57">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F57">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G57">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I57">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 09:42:40</v>
+        <v>2023-09-30 04:48:03</v>
       </c>
       <c r="B58">
-        <v>69.78</v>
+        <v>62.9</v>
       </c>
       <c r="C58">
-        <v>84.89</v>
+        <v>77.73</v>
       </c>
       <c r="D58">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="E58">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F58">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G58">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 14:52:27</v>
+        <v>2023-09-30 09:59:04</v>
       </c>
       <c r="B59">
-        <v>69.09</v>
+        <v>62.6</v>
       </c>
       <c r="C59">
-        <v>84.89</v>
+        <v>77.73</v>
       </c>
       <c r="D59">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="E59">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F59">
         <v>0.07</v>
       </c>
       <c r="G59">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I59">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 20:02:26</v>
+        <v>2023-09-30 15:08:09</v>
       </c>
       <c r="B60">
-        <v>68.98</v>
+        <v>61.38</v>
       </c>
       <c r="C60">
-        <v>84.89</v>
+        <v>77.73</v>
       </c>
       <c r="D60">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="E60">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F60">
         <v>0.07</v>
       </c>
       <c r="G60">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H60">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I60">
         <v>11</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 01:12:48</v>
+        <v>2023-09-30 20:18:08</v>
       </c>
       <c r="B61">
-        <v>67.98</v>
+        <v>60.9</v>
       </c>
       <c r="C61">
-        <v>84.89</v>
+        <v>77.73</v>
       </c>
       <c r="D61">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="E61">
         <v>0.08</v>
@@ -1986,10 +1986,10 @@
         <v>0.06</v>
       </c>
       <c r="G61">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I61">
         <v>12</v>
@@ -1997,103 +1997,103 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 06:22:54</v>
+        <v>2023-10-01 01:30:38</v>
       </c>
       <c r="B62">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>82.55</v>
+        <v>77.73</v>
       </c>
       <c r="D62">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F62">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G62">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 11:32:39</v>
+        <v>2023-10-01 06:38:15</v>
       </c>
       <c r="B63">
-        <v>68.9</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>82.55</v>
+        <v>76.38</v>
       </c>
       <c r="D63">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E63">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F63">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 16:42:38</v>
+        <v>2023-10-01 11:49:06</v>
       </c>
       <c r="B64">
-        <v>67.7</v>
+        <v>60.9</v>
       </c>
       <c r="C64">
-        <v>82.55</v>
+        <v>76.38</v>
       </c>
       <c r="D64">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="E64">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F64">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G64">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 21:53:09</v>
+        <v>2023-10-01 16:58:21</v>
       </c>
       <c r="B65">
-        <v>66.77</v>
+        <v>61.48</v>
       </c>
       <c r="C65">
-        <v>82.55</v>
+        <v>76.38</v>
       </c>
       <c r="D65">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E65">
         <v>0.08</v>
@@ -2102,27 +2102,27 @@
         <v>0.06</v>
       </c>
       <c r="G65">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 03:05:23</v>
+        <v>2023-10-01 22:08:20</v>
       </c>
       <c r="B66">
-        <v>66.28</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>83.39</v>
+        <v>76.38</v>
       </c>
       <c r="D66">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E66">
         <v>0.08</v>
@@ -2131,24 +2131,24 @@
         <v>0.06</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>59</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 08:12:51</v>
+        <v>2023-10-02 03:18:19</v>
       </c>
       <c r="B67">
-        <v>66.2</v>
+        <v>62</v>
       </c>
       <c r="C67">
-        <v>83.39</v>
+        <v>76.38</v>
       </c>
       <c r="D67">
         <v>240</v>
@@ -2160,404 +2160,404 @@
         <v>0.06</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>59</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 13:22:52</v>
+        <v>2023-10-02 08:28:18</v>
       </c>
       <c r="B68">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68">
-        <v>83.39</v>
+        <v>76.38</v>
       </c>
       <c r="D68">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E68">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F68">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G68">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I68">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 18:34:19</v>
+        <v>2023-10-02 13:38:55</v>
       </c>
       <c r="B69">
-        <v>62.9</v>
+        <v>62</v>
       </c>
       <c r="C69">
-        <v>83.39</v>
+        <v>76.38</v>
       </c>
       <c r="D69">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E69">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F69">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G69">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 23:43:24</v>
+        <v>2023-10-02 18:49:32</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>62.6</v>
       </c>
       <c r="C70">
-        <v>83.39</v>
+        <v>76.38</v>
       </c>
       <c r="D70">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E70">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F70">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G70">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 04:48:03</v>
+        <v>2023-10-02 23:58:59</v>
       </c>
       <c r="B71">
-        <v>62.9</v>
+        <v>59.9</v>
       </c>
       <c r="C71">
-        <v>77.73</v>
+        <v>76.38</v>
       </c>
       <c r="D71">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E71">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F71">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G71">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 09:59:04</v>
+        <v>2023-10-03 05:08:55</v>
       </c>
       <c r="B72">
-        <v>62.6</v>
+        <v>62.9</v>
       </c>
       <c r="C72">
-        <v>77.73</v>
+        <v>79.04</v>
       </c>
       <c r="D72">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E72">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F72">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G72">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 15:08:09</v>
+        <v>2023-10-03 10:18:45</v>
       </c>
       <c r="B73">
-        <v>61.38</v>
+        <v>62.9</v>
       </c>
       <c r="C73">
-        <v>77.73</v>
+        <v>79.04</v>
       </c>
       <c r="D73">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F73">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G73">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I73">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 20:18:08</v>
+        <v>2023-10-03 15:28:46</v>
       </c>
       <c r="B74">
-        <v>60.9</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>77.73</v>
+        <v>79.04</v>
       </c>
       <c r="D74">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E74">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H74">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I74">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 01:30:38</v>
+        <v>2023-10-03 20:38:45</v>
       </c>
       <c r="B75">
-        <v>61</v>
+        <v>62.4</v>
       </c>
       <c r="C75">
-        <v>77.73</v>
+        <v>79.04</v>
       </c>
       <c r="D75">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E75">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F75">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G75">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H75">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I75">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 06:38:15</v>
+        <v>2023-10-04 01:43:49</v>
       </c>
       <c r="B76">
-        <v>61</v>
+        <v>62.3</v>
       </c>
       <c r="C76">
-        <v>76.38</v>
+        <v>79.04</v>
       </c>
       <c r="D76">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E76">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F76">
         <v>0.07</v>
       </c>
       <c r="G76">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I76">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 11:49:06</v>
+        <v>2023-10-04 06:54:09</v>
       </c>
       <c r="B77">
-        <v>60.9</v>
+        <v>62.2</v>
       </c>
       <c r="C77">
-        <v>76.38</v>
+        <v>77.94</v>
       </c>
       <c r="D77">
         <v>261</v>
       </c>
       <c r="E77">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F77">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G77">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H77">
         <v>58</v>
       </c>
       <c r="I77">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 16:58:21</v>
+        <v>2023-10-04 12:05:19</v>
       </c>
       <c r="B78">
-        <v>61.48</v>
+        <v>62.48</v>
       </c>
       <c r="C78">
-        <v>76.38</v>
+        <v>77.94</v>
       </c>
       <c r="D78">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E78">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F78">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G78">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H78">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 22:08:20</v>
+        <v>2023-10-04 17:14:02</v>
       </c>
       <c r="B79">
-        <v>62</v>
+        <v>62.48</v>
       </c>
       <c r="C79">
-        <v>76.38</v>
+        <v>77.94</v>
       </c>
       <c r="D79">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E79">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F79">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G79">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H79">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I79">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 03:18:19</v>
+        <v>2023-10-04 22:24:01</v>
       </c>
       <c r="B80">
         <v>62</v>
       </c>
       <c r="C80">
-        <v>76.38</v>
+        <v>77.94</v>
       </c>
       <c r="D80">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="E80">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F80">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G80">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H80">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I80">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 08:28:18</v>
+        <v>2023-10-05 03:34:00</v>
       </c>
       <c r="B81">
         <v>62</v>
       </c>
       <c r="C81">
-        <v>76.38</v>
+        <v>75.01</v>
       </c>
       <c r="D81">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E81">
         <v>0.07</v>
@@ -2566,56 +2566,56 @@
         <v>0.05</v>
       </c>
       <c r="G81">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H81">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I81">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 13:38:55</v>
+        <v>2023-10-05 08:43:59</v>
       </c>
       <c r="B82">
-        <v>62</v>
+        <v>62.28</v>
       </c>
       <c r="C82">
-        <v>76.38</v>
+        <v>75.01</v>
       </c>
       <c r="D82">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E82">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F82">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G82">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H82">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I82">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 18:49:32</v>
+        <v>2023-10-05 13:53:58</v>
       </c>
       <c r="B83">
-        <v>62.6</v>
+        <v>62.35</v>
       </c>
       <c r="C83">
-        <v>76.38</v>
+        <v>75.01</v>
       </c>
       <c r="D83">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E83">
         <v>0.07</v>
@@ -2624,39 +2624,39 @@
         <v>0.05</v>
       </c>
       <c r="G83">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H83">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I83">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 23:58:59</v>
+        <v>2023-10-05 19:03:57</v>
       </c>
       <c r="B84">
-        <v>59.9</v>
+        <v>62</v>
       </c>
       <c r="C84">
-        <v>76.38</v>
+        <v>75.01</v>
       </c>
       <c r="D84">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E84">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F84">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G84">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I84">
         <v>15</v>
@@ -2664,161 +2664,161 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 05:08:55</v>
+        <v>2023-10-06 00:13:56</v>
       </c>
       <c r="B85">
-        <v>62.9</v>
+        <v>62.49</v>
       </c>
       <c r="C85">
-        <v>79.04</v>
+        <v>75.01</v>
       </c>
       <c r="D85">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E85">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="F85">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G85">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H85">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I85">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 10:18:45</v>
+        <v>2023-10-06 05:23:53</v>
       </c>
       <c r="B86">
-        <v>62.9</v>
+        <v>62.49</v>
       </c>
       <c r="C86">
-        <v>79.04</v>
+        <v>78</v>
       </c>
       <c r="D86">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E86">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="F86">
         <v>0.05</v>
       </c>
       <c r="G86">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H86">
         <v>59</v>
       </c>
       <c r="I86">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 15:28:46</v>
+        <v>2023-10-06 10:33:52</v>
       </c>
       <c r="B87">
-        <v>62</v>
+        <v>62.49</v>
       </c>
       <c r="C87">
-        <v>79.04</v>
+        <v>78</v>
       </c>
       <c r="D87">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="F87">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G87">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I87">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 20:38:45</v>
+        <v>2023-10-06 15:43:51</v>
       </c>
       <c r="B88">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
       <c r="C88">
-        <v>79.04</v>
+        <v>78</v>
       </c>
       <c r="D88">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E88">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="F88">
         <v>0.05</v>
       </c>
       <c r="G88">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H88">
         <v>59</v>
       </c>
       <c r="I88">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 01:43:49</v>
+        <v>2023-10-06 20:53:50</v>
       </c>
       <c r="B89">
-        <v>62.3</v>
+        <v>61.3</v>
       </c>
       <c r="C89">
-        <v>79.04</v>
+        <v>78</v>
       </c>
       <c r="D89">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E89">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F89">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="G89">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H89">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I89">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 06:54:09</v>
+        <v>2023-10-07 02:03:49</v>
       </c>
       <c r="B90">
-        <v>62.2</v>
+        <v>61.7</v>
       </c>
       <c r="C90">
-        <v>77.94</v>
+        <v>78.65</v>
       </c>
       <c r="D90">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E90">
         <v>0.07</v>
@@ -2827,56 +2827,56 @@
         <v>0.05</v>
       </c>
       <c r="G90">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H90">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I90">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 12:05:19</v>
+        <v>2023-10-07 07:13:54</v>
       </c>
       <c r="B91">
-        <v>62.48</v>
+        <v>62</v>
       </c>
       <c r="C91">
-        <v>77.94</v>
+        <v>78.65</v>
       </c>
       <c r="D91">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E91">
+        <v>0.07</v>
+      </c>
+      <c r="F91">
         <v>0.05</v>
-      </c>
-      <c r="F91">
-        <v>0.04</v>
       </c>
       <c r="G91">
         <v>45</v>
       </c>
       <c r="H91">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 17:14:02</v>
+        <v>2023-10-07 12:24:33</v>
       </c>
       <c r="B92">
-        <v>62.48</v>
+        <v>62.5</v>
       </c>
       <c r="C92">
-        <v>77.94</v>
+        <v>78.65</v>
       </c>
       <c r="D92">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E92">
         <v>0.07</v>
@@ -2885,27 +2885,27 @@
         <v>0.05</v>
       </c>
       <c r="G92">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I92">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 22:24:01</v>
+        <v>2023-10-07 17:34:00</v>
       </c>
       <c r="B93">
-        <v>62</v>
+        <v>62.3</v>
       </c>
       <c r="C93">
-        <v>77.94</v>
+        <v>78.65</v>
       </c>
       <c r="D93">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E93">
         <v>0.07</v>
@@ -2914,85 +2914,85 @@
         <v>0.05</v>
       </c>
       <c r="G93">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 03:34:00</v>
+        <v>2023-10-07 22:43:59</v>
       </c>
       <c r="B94">
-        <v>62</v>
+        <v>62.9</v>
       </c>
       <c r="C94">
-        <v>75.01</v>
+        <v>78.65</v>
       </c>
       <c r="D94">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E94">
         <v>0.07</v>
       </c>
       <c r="F94">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G94">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 08:43:59</v>
+        <v>2023-10-08 03:54:00</v>
       </c>
       <c r="B95">
-        <v>62.28</v>
+        <v>63</v>
       </c>
       <c r="C95">
-        <v>75.01</v>
+        <v>78.19</v>
       </c>
       <c r="D95">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E95">
         <v>0.07</v>
       </c>
       <c r="F95">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G95">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H95">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 13:53:58</v>
+        <v>2023-10-08 09:04:21</v>
       </c>
       <c r="B96">
-        <v>62.35</v>
+        <v>63</v>
       </c>
       <c r="C96">
-        <v>75.01</v>
+        <v>78.19</v>
       </c>
       <c r="D96">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="E96">
         <v>0.07</v>
@@ -3001,97 +3001,97 @@
         <v>0.05</v>
       </c>
       <c r="G96">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H96">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I96">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 19:03:57</v>
+        <v>2023-10-08 14:14:06</v>
       </c>
       <c r="B97">
+        <v>63.9</v>
+      </c>
+      <c r="C97">
+        <v>78.19</v>
+      </c>
+      <c r="D97">
+        <v>243</v>
+      </c>
+      <c r="E97">
+        <v>0.07</v>
+      </c>
+      <c r="F97">
+        <v>0.06</v>
+      </c>
+      <c r="G97">
+        <v>44</v>
+      </c>
+      <c r="H97">
         <v>62</v>
       </c>
-      <c r="C97">
-        <v>75.01</v>
-      </c>
-      <c r="D97">
-        <v>266</v>
-      </c>
-      <c r="E97">
-        <v>0.05</v>
-      </c>
-      <c r="F97">
-        <v>0.05</v>
-      </c>
-      <c r="G97">
-        <v>48</v>
-      </c>
-      <c r="H97">
-        <v>58</v>
-      </c>
       <c r="I97">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 00:13:56</v>
+        <v>2023-10-08 19:24:05</v>
       </c>
       <c r="B98">
-        <v>62.49</v>
+        <v>63.88</v>
       </c>
       <c r="C98">
-        <v>75.01</v>
+        <v>78.19</v>
       </c>
       <c r="D98">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F98">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G98">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H98">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I98">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 05:23:53</v>
+        <v>2023-10-09 00:36:18</v>
       </c>
       <c r="B99">
-        <v>62.49</v>
+        <v>63.9</v>
       </c>
       <c r="C99">
-        <v>78</v>
+        <v>78.19</v>
       </c>
       <c r="D99">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E99">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F99">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G99">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I99">
         <v>20</v>
@@ -3099,248 +3099,248 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 10:33:52</v>
+        <v>2023-10-09 05:45:43</v>
       </c>
       <c r="B100">
-        <v>62.49</v>
+        <v>63.9</v>
       </c>
       <c r="C100">
-        <v>78</v>
+        <v>81.77</v>
       </c>
       <c r="D100">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E100">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="F100">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G100">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I100">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 15:43:51</v>
+        <v>2023-10-09 10:54:18</v>
       </c>
       <c r="B101">
-        <v>61.6</v>
+        <v>63.9</v>
       </c>
       <c r="C101">
-        <v>78</v>
+        <v>81.77</v>
       </c>
       <c r="D101">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E101">
         <v>0.06</v>
       </c>
       <c r="F101">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G101">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I101">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 20:53:50</v>
+        <v>2023-10-09 16:04:43</v>
       </c>
       <c r="B102">
-        <v>61.3</v>
+        <v>65</v>
       </c>
       <c r="C102">
-        <v>78</v>
+        <v>81.77</v>
       </c>
       <c r="D102">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E102">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
       <c r="F102">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G102">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H102">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I102">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-07 02:03:49</v>
+        <v>2023-10-09 21:15:36</v>
       </c>
       <c r="B103">
-        <v>61.7</v>
+        <v>64.9</v>
       </c>
       <c r="C103">
-        <v>78.65</v>
+        <v>81.77</v>
       </c>
       <c r="D103">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E103">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F103">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G103">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I103">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 07:13:54</v>
+        <v>2023-10-10 02:24:49</v>
       </c>
       <c r="B104">
+        <v>66.66</v>
+      </c>
+      <c r="C104">
+        <v>82.81</v>
+      </c>
+      <c r="D104">
+        <v>238</v>
+      </c>
+      <c r="E104">
+        <v>0.08</v>
+      </c>
+      <c r="F104">
+        <v>0.06</v>
+      </c>
+      <c r="G104">
+        <v>44</v>
+      </c>
+      <c r="H104">
         <v>62</v>
       </c>
-      <c r="C104">
-        <v>78.65</v>
-      </c>
-      <c r="D104">
-        <v>251</v>
-      </c>
-      <c r="E104">
-        <v>0.07</v>
-      </c>
-      <c r="F104">
-        <v>0.05</v>
-      </c>
-      <c r="G104">
-        <v>45</v>
-      </c>
-      <c r="H104">
-        <v>59</v>
-      </c>
       <c r="I104">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 12:24:33</v>
+        <v>2023-10-10 07:34:37</v>
       </c>
       <c r="B105">
-        <v>62.5</v>
+        <v>66.66</v>
       </c>
       <c r="C105">
-        <v>78.65</v>
+        <v>82.81</v>
       </c>
       <c r="D105">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E105">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F105">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G105">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I105">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 17:34:00</v>
+        <v>2023-10-10 12:44:36</v>
       </c>
       <c r="B106">
-        <v>62.3</v>
+        <v>66.89</v>
       </c>
       <c r="C106">
-        <v>78.65</v>
+        <v>82.81</v>
       </c>
       <c r="D106">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E106">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F106">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G106">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H106">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I106">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 22:43:59</v>
+        <v>2023-10-10 17:55:32</v>
       </c>
       <c r="B107">
-        <v>62.9</v>
+        <v>66.77</v>
       </c>
       <c r="C107">
-        <v>78.65</v>
+        <v>82.81</v>
       </c>
       <c r="D107">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E107">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F107">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G107">
         <v>42</v>
       </c>
       <c r="H107">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I107">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-08 03:54:00</v>
+        <v>2023-10-10 23:04:42</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C108">
-        <v>78.19</v>
+        <v>82.81</v>
       </c>
       <c r="D108">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E108">
         <v>0.07</v>
@@ -3349,126 +3349,126 @@
         <v>0.06</v>
       </c>
       <c r="G108">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I108">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 09:04:21</v>
+        <v>2023-10-11 04:14:41</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>66.98</v>
       </c>
       <c r="C109">
-        <v>78.19</v>
+        <v>88.01</v>
       </c>
       <c r="D109">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E109">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F109">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G109">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I109">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 14:14:06</v>
+        <v>2023-10-11 09:24:40</v>
       </c>
       <c r="B110">
-        <v>63.9</v>
+        <v>67</v>
       </c>
       <c r="C110">
-        <v>78.19</v>
+        <v>88.01</v>
       </c>
       <c r="D110">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E110">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F110">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G110">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H110">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I110">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 19:24:05</v>
+        <v>2023-10-11 14:34:39</v>
       </c>
       <c r="B111">
-        <v>63.88</v>
+        <v>67</v>
       </c>
       <c r="C111">
-        <v>78.19</v>
+        <v>88.01</v>
       </c>
       <c r="D111">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E111">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F111">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G111">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H111">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I111">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 00:36:18</v>
+        <v>2023-10-11 19:44:38</v>
       </c>
       <c r="B112">
-        <v>63.9</v>
+        <v>66.9</v>
       </c>
       <c r="C112">
-        <v>78.19</v>
+        <v>88.01</v>
       </c>
       <c r="D112">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E112">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F112">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G112">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I112">
         <v>20</v>
@@ -3476,434 +3476,434 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 05:45:43</v>
+        <v>2023-10-12 00:54:37</v>
       </c>
       <c r="B113">
-        <v>63.9</v>
+        <v>67.9</v>
       </c>
       <c r="C113">
-        <v>81.77</v>
+        <v>88.01</v>
       </c>
       <c r="D113">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E113">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F113">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G113">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I113">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 10:54:18</v>
+        <v>2023-10-12 06:04:36</v>
       </c>
       <c r="B114">
-        <v>63.9</v>
+        <v>67.8</v>
       </c>
       <c r="C114">
-        <v>81.77</v>
+        <v>84.17</v>
       </c>
       <c r="D114">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E114">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F114">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G114">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 16:04:43</v>
+        <v>2023-10-12 11:14:35</v>
       </c>
       <c r="B115">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C115">
-        <v>81.77</v>
+        <v>84.17</v>
       </c>
       <c r="D115">
         <v>239</v>
       </c>
       <c r="E115">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="F115">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G115">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I115">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 21:15:36</v>
+        <v>2023-10-12 16:24:34</v>
       </c>
       <c r="B116">
-        <v>64.9</v>
+        <v>66.9</v>
       </c>
       <c r="C116">
-        <v>81.77</v>
+        <v>84.17</v>
       </c>
       <c r="D116">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E116">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F116">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G116">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I116">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-10 02:24:49</v>
+        <v>2023-10-12 21:34:33</v>
       </c>
       <c r="B117">
-        <v>66.66</v>
+        <v>66.7</v>
       </c>
       <c r="C117">
-        <v>82.81</v>
+        <v>84.17</v>
       </c>
       <c r="D117">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E117">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F117">
         <v>0.06</v>
       </c>
       <c r="G117">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I117">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 07:34:37</v>
+        <v>2023-10-13 02:44:52</v>
       </c>
       <c r="B118">
-        <v>66.66</v>
+        <v>67</v>
       </c>
       <c r="C118">
-        <v>82.81</v>
+        <v>86.25</v>
       </c>
       <c r="D118">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E118">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F118">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G118">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I118">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 12:44:36</v>
+        <v>2023-10-13 07:54:39</v>
       </c>
       <c r="B119">
-        <v>66.89</v>
+        <v>67</v>
       </c>
       <c r="C119">
-        <v>82.81</v>
+        <v>86.25</v>
       </c>
       <c r="D119">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F119">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G119">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 17:55:32</v>
+        <v>2023-10-13 13:04:39</v>
       </c>
       <c r="B120">
-        <v>66.77</v>
+        <v>67.8</v>
       </c>
       <c r="C120">
-        <v>82.81</v>
+        <v>86.25</v>
       </c>
       <c r="D120">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E120">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F120">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G120">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I120">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 23:04:42</v>
+        <v>2023-10-13 18:14:38</v>
       </c>
       <c r="B121">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C121">
-        <v>82.81</v>
+        <v>86.25</v>
       </c>
       <c r="D121">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E121">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F121">
         <v>0.06</v>
       </c>
       <c r="G121">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I121">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-11 04:14:41</v>
+        <v>2023-10-13 23:25:44</v>
       </c>
       <c r="B122">
-        <v>66.98</v>
+        <v>67.9</v>
       </c>
       <c r="C122">
-        <v>88.01</v>
+        <v>86.25</v>
       </c>
       <c r="D122">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E122">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F122">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G122">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I122">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 09:24:40</v>
+        <v>2023-10-14 04:34:44</v>
       </c>
       <c r="B123">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C123">
-        <v>88.01</v>
+        <v>86.25</v>
       </c>
       <c r="D123">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E123">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F123">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G123">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I123">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 14:34:39</v>
+        <v>2023-10-14 09:44:43</v>
       </c>
       <c r="B124">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C124">
-        <v>88.01</v>
+        <v>86.25</v>
       </c>
       <c r="D124">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E124">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F124">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G124">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I124">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 19:44:38</v>
+        <v>2023-10-14 14:54:42</v>
       </c>
       <c r="B125">
-        <v>66.9</v>
+        <v>67.4</v>
       </c>
       <c r="C125">
-        <v>88.01</v>
+        <v>86.25</v>
       </c>
       <c r="D125">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E125">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F125">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G125">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I125">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 00:54:37</v>
+        <v>2023-10-14 20:04:42</v>
       </c>
       <c r="B126">
-        <v>67.9</v>
+        <v>67</v>
       </c>
       <c r="C126">
-        <v>88.01</v>
+        <v>86.25</v>
       </c>
       <c r="D126">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E126">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F126">
         <v>0.06</v>
       </c>
       <c r="G126">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I126">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 06:04:36</v>
+        <v>2023-10-15 01:09:54</v>
       </c>
       <c r="B127">
-        <v>67.8</v>
+        <v>66.9</v>
       </c>
       <c r="C127">
-        <v>84.17</v>
+        <v>86.25</v>
       </c>
       <c r="D127">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E127">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F127">
         <v>0.06</v>
       </c>
       <c r="G127">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I127">
         <v>20</v>
@@ -3911,196 +3911,196 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 11:14:35</v>
+        <v>2023-10-15 06:19:53</v>
       </c>
       <c r="B128">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C128">
-        <v>84.17</v>
+        <v>87.56</v>
       </c>
       <c r="D128">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E128">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F128">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G128">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>65</v>
       </c>
       <c r="I128">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 16:24:34</v>
+        <v>2023-10-15 11:29:52</v>
       </c>
       <c r="B129">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="C129">
-        <v>84.17</v>
+        <v>87.56</v>
       </c>
       <c r="D129">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E129">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F129">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G129">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>65</v>
       </c>
       <c r="I129">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 21:34:33</v>
+        <v>2023-10-15 16:39:51</v>
       </c>
       <c r="B130">
-        <v>66.7</v>
+        <v>66.9</v>
       </c>
       <c r="C130">
-        <v>84.17</v>
+        <v>87.56</v>
       </c>
       <c r="D130">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E130">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="F130">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G130">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>65</v>
       </c>
       <c r="I130">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-13 02:44:52</v>
+        <v>2023-10-15 21:49:50</v>
       </c>
       <c r="B131">
-        <v>67</v>
+        <v>67.5</v>
       </c>
       <c r="C131">
-        <v>86.25</v>
+        <v>87.56</v>
       </c>
       <c r="D131">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E131">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F131">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G131">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>65</v>
       </c>
       <c r="I131">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 07:54:39</v>
+        <v>2023-10-16 02:59:49</v>
       </c>
       <c r="B132">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="C132">
-        <v>86.25</v>
+        <v>87.1</v>
       </c>
       <c r="D132">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E132">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F132">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G132">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>65</v>
       </c>
       <c r="I132">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 13:04:39</v>
+        <v>2023-10-16 08:09:48</v>
       </c>
       <c r="B133">
-        <v>67.8</v>
+        <v>67.89</v>
       </c>
       <c r="C133">
-        <v>86.25</v>
+        <v>87.1</v>
       </c>
       <c r="D133">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E133">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F133">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G133">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>66</v>
       </c>
       <c r="I133">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 18:14:38</v>
+        <v>2023-10-16 13:19:49</v>
       </c>
       <c r="B134">
-        <v>68</v>
+        <v>67.59</v>
       </c>
       <c r="C134">
-        <v>86.25</v>
+        <v>87.1</v>
       </c>
       <c r="D134">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E134">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F134">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G134">
         <v>37</v>
@@ -4109,253 +4109,253 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 23:25:44</v>
+        <v>2023-10-16 18:29:51</v>
       </c>
       <c r="B135">
-        <v>67.9</v>
+        <v>67.7</v>
       </c>
       <c r="C135">
-        <v>86.25</v>
+        <v>87.1</v>
       </c>
       <c r="D135">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E135">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F135">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G135">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H135">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I135">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-14 04:34:44</v>
+        <v>2023-10-16 23:39:50</v>
       </c>
       <c r="B136">
-        <v>67.5</v>
+        <v>67.89</v>
       </c>
       <c r="C136">
-        <v>86.25</v>
+        <v>87.1</v>
       </c>
       <c r="D136">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E136">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F136">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G136">
         <v>37</v>
       </c>
       <c r="H136">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I136">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 09:44:43</v>
+        <v>2023-10-17 04:49:49</v>
       </c>
       <c r="B137">
         <v>67.5</v>
       </c>
       <c r="C137">
-        <v>86.25</v>
+        <v>85.93</v>
       </c>
       <c r="D137">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E137">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F137">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G137">
         <v>36</v>
       </c>
       <c r="H137">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I137">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 14:54:42</v>
+        <v>2023-10-17 09:59:47</v>
       </c>
       <c r="B138">
-        <v>67.4</v>
+        <v>67.89</v>
       </c>
       <c r="C138">
-        <v>86.25</v>
+        <v>85.93</v>
       </c>
       <c r="D138">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E138">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F138">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G138">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>66</v>
       </c>
       <c r="I138">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 20:04:42</v>
+        <v>2023-10-17 15:09:46</v>
       </c>
       <c r="B139">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="C139">
-        <v>86.25</v>
+        <v>85.93</v>
       </c>
       <c r="D139">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E139">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F139">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G139">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I139">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 01:09:54</v>
+        <v>2023-10-17 20:19:45</v>
       </c>
       <c r="B140">
-        <v>66.9</v>
+        <v>67</v>
       </c>
       <c r="C140">
-        <v>86.25</v>
+        <v>85.93</v>
       </c>
       <c r="D140">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E140">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F140">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G140">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I140">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 06:19:53</v>
+        <v>2023-10-18 01:29:44</v>
       </c>
       <c r="B141">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="C141">
-        <v>87.56</v>
+        <v>85.93</v>
       </c>
       <c r="D141">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E141">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F141">
         <v>0.06</v>
       </c>
       <c r="G141">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>65</v>
       </c>
       <c r="I141">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 11:29:52</v>
+        <v>2023-10-18 06:39:43</v>
       </c>
       <c r="B142">
-        <v>66.8</v>
+        <v>67.4</v>
       </c>
       <c r="C142">
-        <v>87.56</v>
+        <v>85.22</v>
       </c>
       <c r="D142">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E142">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F142">
         <v>0.06</v>
       </c>
       <c r="G142">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>65</v>
       </c>
       <c r="I142">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 16:39:51</v>
+        <v>2023-10-18 11:49:42</v>
       </c>
       <c r="B143">
-        <v>66.9</v>
+        <v>67</v>
       </c>
       <c r="C143">
-        <v>87.56</v>
+        <v>85.22</v>
       </c>
       <c r="D143">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E143">
         <v>0.1</v>
@@ -4370,120 +4370,120 @@
         <v>65</v>
       </c>
       <c r="I143">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 21:49:50</v>
+        <v>2023-10-18 16:59:41</v>
       </c>
       <c r="B144">
-        <v>67.5</v>
+        <v>66.98</v>
       </c>
       <c r="C144">
-        <v>87.56</v>
+        <v>85.22</v>
       </c>
       <c r="D144">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E144">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F144">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G144">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I144">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-16 02:59:49</v>
+        <v>2023-10-18 22:09:40</v>
       </c>
       <c r="B145">
-        <v>67.89</v>
+        <v>66.89</v>
       </c>
       <c r="C145">
-        <v>87.1</v>
+        <v>85.22</v>
       </c>
       <c r="D145">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E145">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F145">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G145">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H145">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I145">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 08:09:48</v>
+        <v>2023-10-19 03:19:39</v>
       </c>
       <c r="B146">
-        <v>67.89</v>
+        <v>66.98</v>
       </c>
       <c r="C146">
-        <v>87.1</v>
+        <v>85.28</v>
       </c>
       <c r="D146">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E146">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F146">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G146">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I146">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-16 13:19:49</v>
+        <v>2023-10-19 08:29:38</v>
       </c>
       <c r="B147">
-        <v>67.59</v>
+        <v>66.89</v>
       </c>
       <c r="C147">
-        <v>87.1</v>
+        <v>85.28</v>
       </c>
       <c r="D147">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E147">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F147">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G147">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I147">
         <v>15</v>
